--- a/medicine/Psychotrope/Caledonian_Brewery/Caledonian_Brewery.xlsx
+++ b/medicine/Psychotrope/Caledonian_Brewery/Caledonian_Brewery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Caledonian Brewery (littéralement, brasserie calédonienne) est une brasserie écossaise fondée en 1869 à Shandon, un quartier d’Édimbourg. Connue localement sous le nom de "The Caley", elle est la dernière survivante de plus de quarante brasseries opérant dans la ville au XIXe siècle, bien que de nouvelles brasseries aient été ouvertes plus récemment. 
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bières de saison
-Dutchman : witbier
+          <t>Bières de saison</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dutchman : witbier
 Golden Sun : bière d'été
 Rouge d'automne : bière rouge
 Double Dark : stout à l'avoine
@@ -555,7 +572,9 @@
           <t>Autres projets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
